--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -679,6 +679,9 @@
     <t>Red Moon : To You My Light</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>MBC</t>
   </si>
   <si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1184,6 +1187,12 @@
       <c r="F2" t="s">
         <v>170</v>
       </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1205,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1231,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1257,7 +1266,7 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H5" t="s">
         <v>231</v>
@@ -1283,7 +1292,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
         <v>231</v>
@@ -1309,7 +1318,7 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
         <v>231</v>
@@ -1335,7 +1344,7 @@
         <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>231</v>
@@ -1361,10 +1370,10 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1387,7 +1396,7 @@
         <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>231</v>
@@ -1413,7 +1422,7 @@
         <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>231</v>
@@ -1439,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1465,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
         <v>231</v>
@@ -1491,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
         <v>231</v>
@@ -1569,7 +1578,7 @@
         <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
         <v>231</v>
@@ -1595,10 +1604,10 @@
         <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1647,7 +1656,7 @@
         <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
         <v>231</v>
@@ -1699,7 +1708,7 @@
         <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H22" t="s">
         <v>231</v>
@@ -1724,6 +1733,12 @@
       <c r="F23" t="s">
         <v>170</v>
       </c>
+      <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
@@ -1745,7 +1760,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
         <v>231</v>
@@ -1771,7 +1786,7 @@
         <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
         <v>231</v>
@@ -1797,7 +1812,7 @@
         <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
         <v>231</v>
@@ -1823,7 +1838,7 @@
         <v>173</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>231</v>
@@ -1875,7 +1890,7 @@
         <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
         <v>231</v>
@@ -1901,7 +1916,7 @@
         <v>173</v>
       </c>
       <c r="G30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>231</v>
@@ -1927,7 +1942,7 @@
         <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
         <v>231</v>
@@ -1953,7 +1968,7 @@
         <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
         <v>231</v>
@@ -1978,6 +1993,12 @@
       <c r="F33" t="s">
         <v>170</v>
       </c>
+      <c r="G33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -1999,10 +2020,10 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2025,7 +2046,7 @@
         <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
         <v>231</v>
@@ -2233,7 +2254,7 @@
         <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s">
         <v>231</v>
@@ -2259,10 +2280,10 @@
         <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2285,10 +2306,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2441,10 +2462,10 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2570,6 +2591,12 @@
       <c r="F56" t="s">
         <v>170</v>
       </c>
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2721,10 +2748,10 @@
         <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2851,10 +2878,10 @@
         <v>198</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3007,10 +3034,10 @@
         <v>203</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3085,10 +3112,10 @@
         <v>205</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3188,6 +3215,12 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
+      <c r="G80" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3209,10 +3242,10 @@
         <v>209</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3235,7 +3268,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
         <v>231</v>
@@ -3260,6 +3293,12 @@
       <c r="F83" t="s">
         <v>170</v>
       </c>
+      <c r="G83" t="s">
+        <v>221</v>
+      </c>
+      <c r="H83" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
@@ -3385,7 +3424,7 @@
         <v>214</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H88" t="s">
         <v>231</v>
@@ -3410,6 +3449,12 @@
       <c r="F89" t="s">
         <v>97</v>
       </c>
+      <c r="G89" t="s">
+        <v>234</v>
+      </c>
+      <c r="H89" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3431,7 +3476,7 @@
         <v>215</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H90" t="s">
         <v>231</v>
@@ -3457,10 +3502,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3560,6 +3605,12 @@
       <c r="F95" t="s">
         <v>170</v>
       </c>
+      <c r="G95" t="s">
+        <v>221</v>
+      </c>
+      <c r="H95" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
@@ -3607,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H97" t="s">
         <v>231</v>
@@ -3658,6 +3709,12 @@
       <c r="F99" t="s">
         <v>220</v>
       </c>
+      <c r="G99" t="s">
+        <v>250</v>
+      </c>
+      <c r="H99" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
@@ -3679,7 +3736,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H100" t="s">
         <v>231</v>
@@ -3705,7 +3762,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-03</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220503_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
   <si>
     <t>사이트</t>
   </si>
@@ -740,9 +740,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -2410,7 +2407,7 @@
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
         <v>231</v>
@@ -2436,7 +2433,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H50" t="s">
         <v>231</v>
@@ -2514,7 +2511,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H53" t="s">
         <v>231</v>
@@ -2540,7 +2537,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
         <v>231</v>
@@ -2566,10 +2563,10 @@
         <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2644,7 +2641,7 @@
         <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
         <v>231</v>
@@ -2696,7 +2693,7 @@
         <v>192</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H60" t="s">
         <v>231</v>
@@ -2774,10 +2771,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2800,7 +2797,7 @@
         <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
         <v>231</v>
@@ -2930,7 +2927,7 @@
         <v>200</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H69" t="s">
         <v>231</v>
@@ -2956,7 +2953,7 @@
         <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H70" t="s">
         <v>231</v>
@@ -3008,10 +3005,10 @@
         <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3086,7 +3083,7 @@
         <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
         <v>231</v>
@@ -3216,7 +3213,7 @@
         <v>208</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H80" t="s">
         <v>231</v>
@@ -3268,7 +3265,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H82" t="s">
         <v>231</v>
@@ -3424,7 +3421,7 @@
         <v>214</v>
       </c>
       <c r="G88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
         <v>231</v>
@@ -3528,7 +3525,7 @@
         <v>185</v>
       </c>
       <c r="G92" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H92" t="s">
         <v>231</v>
@@ -3554,7 +3551,7 @@
         <v>216</v>
       </c>
       <c r="G93" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H93" t="s">
         <v>231</v>
@@ -3658,7 +3655,7 @@
         <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H97" t="s">
         <v>231</v>
@@ -3684,7 +3681,7 @@
         <v>219</v>
       </c>
       <c r="G98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H98" t="s">
         <v>231</v>
@@ -3710,7 +3707,7 @@
         <v>220</v>
       </c>
       <c r="G99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3736,7 +3733,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H100" t="s">
         <v>231</v>
@@ -3762,7 +3759,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>
